--- a/data/income_statement/2digits/size/91_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/91_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>91-Libraries, archives, museums and other cultural activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>91-Libraries, archives, museums and other cultural activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4859.879980000001</v>
+        <v>8716.770400000001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>10595.38934</v>
+        <v>10026.69518</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>15059.98971</v>
+        <v>19633.84897</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21892.41488</v>
+        <v>27356.55582</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>24032.96227</v>
+        <v>35211.24882</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>33575.50385</v>
+        <v>41126.6763</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>32132.9069</v>
+        <v>49491.20856</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>44236.07322999999</v>
+        <v>55110.75142</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>53873.80436</v>
+        <v>63866.02929</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>68703.06901000001</v>
+        <v>69212.16901000001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>78401.09845999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>95923.56243999999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>79070.27</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4769.79708</v>
+        <v>8626.6875</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10121.1587</v>
+        <v>9540.51482</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>12981.61824</v>
+        <v>17425.85447</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>21459.75553</v>
+        <v>26687.40748</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23607.96244</v>
+        <v>31296.82405</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>31173.58246</v>
+        <v>38398.49337</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>31001.83128</v>
+        <v>47795.83924</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>43516.65495</v>
+        <v>53725.4483</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>51592.82754999999</v>
+        <v>59195.67965</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>65607.46195</v>
+        <v>66117.34745</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>76792.26951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>83484.21183</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>78076.901</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0.6264500000000001</v>
@@ -1040,7 +956,7 @@
         <v>178.31901</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>211.66512</v>
+        <v>646.08708</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>229.18118</v>
@@ -1052,67 +968,77 @@
         <v>0.37525</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>361.54324</v>
+        <v>1794.61418</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>146.33948</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>58.41155999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>59.21156</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>259.665</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>89.45645</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>473.9634</v>
+        <v>485.91312</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2008.86645</v>
+        <v>2138.48948</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>254.34034</v>
+        <v>490.82933</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>213.33471</v>
+        <v>3268.33769</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2172.74021</v>
+        <v>2499.00175</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>609.4122</v>
+        <v>1173.7059</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>719.04303</v>
+        <v>1384.92787</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1919.43357</v>
+        <v>2875.73546</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2949.26758</v>
+        <v>2948.48208</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1550.41739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12380.13905</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>733.704</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>66.14731</v>
+        <v>78.83523</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>68.3403</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>62.38026</v>
+        <v>38.793</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>97.78677</v>
@@ -1121,37 +1047,42 @@
         <v>219.21745</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>86.09519</v>
+        <v>105.69217</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>199.89358</v>
+        <v>201.18659</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>211.87607</v>
+        <v>215.22929</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>458.67855</v>
+        <v>444.90421</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>144.52201</v>
+        <v>147.09684</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>223.11191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>228.13224</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1078.651</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>66.14091000000001</v>
+        <v>78.82883</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>68.3403</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>61.71544</v>
+        <v>38.12818</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>96.24752000000001</v>
@@ -1160,28 +1091,33 @@
         <v>166.03171</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>75.18342</v>
+        <v>94.7804</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>199.20823</v>
+        <v>199.6201</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>211.87607</v>
+        <v>215.22929</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>458.4996</v>
+        <v>444.72526</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>143.33044</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>222.47443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>224.36185</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1077.997</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.0064</v>
@@ -1211,16 +1147,21 @@
         <v>0.17895</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>0</v>
+        <v>2.57483</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>0.30389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3.4368</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1241,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0.68535</v>
+        <v>1.56649</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0</v>
@@ -1255,206 +1196,236 @@
       <c r="M12" s="48" t="n">
         <v>0.33359</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4793.73267</v>
+        <v>8637.935170000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>10527.04904</v>
+        <v>9958.354880000001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>14997.60945</v>
+        <v>19595.05597</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>21794.62811</v>
+        <v>27258.76905</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>23813.74482</v>
+        <v>34992.03137</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>33489.40866</v>
+        <v>41020.98413</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>31933.01332</v>
+        <v>49290.02197</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>44024.19716</v>
+        <v>54895.52213</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>53415.12581000001</v>
+        <v>63421.12508</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>68558.54700000001</v>
+        <v>69065.07217</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>78177.98655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>95695.4302</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>77991.61900000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2327.57203</v>
+        <v>5101.06159</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6938.83103</v>
+        <v>6492.74704</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8855.42366</v>
+        <v>11944.61102</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13231.02302</v>
+        <v>15129.011</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14418.47876</v>
+        <v>22356.66192</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20934.09387</v>
+        <v>26780.55515</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>21371.4565</v>
+        <v>35392.61124000001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>25266.50029</v>
+        <v>32305.66686</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>33775.17221</v>
+        <v>30858.55264</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>43287.16194</v>
+        <v>42994.21369</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>45559.40321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>47912.34307</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>49692.402</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>256.38656</v>
+        <v>65.41792</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>232.10154</v>
+        <v>114.2929</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>322.42238</v>
+        <v>249.96831</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>243.0208</v>
+        <v>244.14785</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>0.30203</v>
+        <v>4147.97993</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>521.4779</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>80.81138</v>
+        <v>1581.43483</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17.23736</v>
+        <v>1153.42275</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>233.00516</v>
+        <v>460.45355</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>2565.70871</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>357.06935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1335.63325</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>971.753</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>721.1052</v>
+        <v>913.9892600000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1935.62711</v>
+        <v>2024.89917</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3318.92277</v>
+        <v>3770.56756</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4825.04526</v>
+        <v>5410.65675</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1917.79305</v>
+        <v>5494.4484</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7347.86038</v>
+        <v>7666.477690000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1707.74166</v>
+        <v>8714.10642</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7377.69929</v>
+        <v>7689.85489</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6910.74049</v>
+        <v>7872.9581</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3804.31626</v>
+        <v>4660.38016</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7016.510679999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8257.15266</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>13017.822</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1350.08027</v>
+        <v>4121.65441</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4771.10238</v>
+        <v>4353.55497</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5214.078509999999</v>
+        <v>7924.075150000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8136.02535</v>
+        <v>9447.274789999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>12500.38368</v>
+        <v>12714.23359</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9737.804900000001</v>
+        <v>15265.64887</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>17240.59593</v>
+        <v>22754.76246</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>17850.77156</v>
+        <v>23441.59714</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>26630.91932</v>
+        <v>22524.63375</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>36897.40677</v>
+        <v>35748.39462</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>38184.50412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>38318.2381</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>35387.49</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1.31906</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>315.337</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2466.16064</v>
+        <v>3536.87358</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3588.21801</v>
+        <v>3465.60784</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6142.18579</v>
+        <v>7650.44495</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8563.605089999999</v>
+        <v>12129.75805</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9395.26606</v>
+        <v>12635.36945</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12555.31479</v>
+        <v>14240.42898</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10561.55682</v>
+        <v>13897.41073</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>18757.69687</v>
+        <v>22589.85527</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>19639.9536</v>
+        <v>32562.57244</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>25271.38506</v>
+        <v>26070.85848</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>32618.58334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>47783.08713</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>28299.217</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3563.74508</v>
+        <v>9807.436250000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5778.19607</v>
+        <v>10677.05313</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8019.37078</v>
+        <v>13371.16752</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>13581.12908</v>
+        <v>19943.66394</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>16297.53562</v>
+        <v>21096.57087</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>13301.28871</v>
+        <v>19308.98157</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>15557.74871</v>
+        <v>21585.384</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>23386.28416</v>
+        <v>30125.91277</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>23504.81597</v>
+        <v>35927.52086</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>22851.19907</v>
+        <v>36431.0673</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>30999.85419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>59429.33489</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>33992.856</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>78.93046000000001</v>
+        <v>453.54707</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>184.82591</v>
+        <v>174.85351</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>322.95593</v>
+        <v>314.70807</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>505.06237</v>
+        <v>723.8850200000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1075.711</v>
+        <v>1051.28538</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>878.9268000000001</v>
+        <v>1095.28306</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1010.50343</v>
+        <v>1140.34232</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1758.2029</v>
+        <v>2043.02117</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1555.98363</v>
+        <v>1558.98613</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1318.05979</v>
+        <v>1647.99401</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2446.44354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2758.24319</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1200.491</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3484.81462</v>
+        <v>9353.88918</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5593.20492</v>
+        <v>10502.03438</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>7696.414849999999</v>
+        <v>13056.45945</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>13076.06671</v>
+        <v>19219.77892</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>15221.82462</v>
+        <v>20045.28549</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>12422.36191</v>
+        <v>18213.69851</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>14547.24528</v>
+        <v>20445.04168</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>21628.08126</v>
+        <v>28082.8916</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>21948.83234</v>
+        <v>34368.53473</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>21533.13928</v>
+        <v>34783.07329</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>28553.41065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>56671.0917</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>32792.365</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1097.58444</v>
+        <v>-6270.56267</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-2189.97806</v>
+        <v>-7211.44529</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1877.18499</v>
+        <v>-5720.72257</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-5017.523990000001</v>
+        <v>-7813.90589</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-6902.26956</v>
+        <v>-8461.201419999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-745.97392</v>
+        <v>-5068.55259</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-4996.19189</v>
+        <v>-7687.97327</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-4628.58729</v>
+        <v>-7536.0575</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-3864.86237</v>
+        <v>-3364.94842</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2420.18599</v>
+        <v>-10360.20882</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1618.72915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-11646.24776</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-5693.639</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>86.47685</v>
+        <v>188.73634</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>84.62716</v>
+        <v>284.06183</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>374.3384</v>
+        <v>471.84074</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1020.87138</v>
+        <v>1119.53767</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>661.4907099999999</v>
+        <v>749.06718</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>288.39822</v>
+        <v>672.14635</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>930.94684</v>
+        <v>1282.71696</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1325.60169</v>
+        <v>1760.14226</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1645.31751</v>
+        <v>1044.19352</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2299.33576</v>
+        <v>10664.51938</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3314.02746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3677.4681</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2967.475</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1.53167</v>
+        <v>1.59342</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2.81379</v>
+        <v>2.36434</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8.376989999999999</v>
+        <v>43.26223</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>63.37442</v>
+        <v>88.77549</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>14.89043</v>
+        <v>42.63737</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>21.0064</v>
+        <v>70.55056</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>57.33097</v>
+        <v>137.91407</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>65.15485</v>
+        <v>155.93238</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>191.1178</v>
+        <v>229.24646</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>878.5479499999999</v>
+        <v>810.7549399999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1499.06485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1555.02319</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>386.531</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>120.82258</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1946,7 +1977,7 @@
         <v>15.13981</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>30.60084</v>
+        <v>38.90859</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>11.27893</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>111.269</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13.92204</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>13.02334</v>
+        <v>20.88149</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>13.59582</v>
+        <v>15.48154</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>36.17287</v>
+        <v>36.38952</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>20.33638</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>25.75574</v>
+        <v>7.50361</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>48.11715</v>
+        <v>18.38595</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>118.15144</v>
+        <v>117.60149</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>137.38391</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>86.73342</v>
+        <v>149.0695</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>66.02837</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>68.30986</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>45.943</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4.730060000000001</v>
+        <v>48.85853</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3.3989</v>
+        <v>139.19668</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>118.63164</v>
+        <v>118.90598</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>276.48439</v>
+        <v>270.37344</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>114.78914</v>
+        <v>109.6549</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>47.8288</v>
+        <v>57.66776</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>129.63391</v>
+        <v>134.68894</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>417.04963</v>
+        <v>417.0179</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>544.40367</v>
+        <v>284.91197</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>392.45423</v>
+        <v>390.311</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>297.85055</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>308.71798</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>955.01</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>66.29308</v>
+        <v>124.36235</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>65.39113</v>
+        <v>121.61932</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>233.73395</v>
+        <v>294.19099</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>616.70547</v>
+        <v>695.86499</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>484.00057</v>
+        <v>548.96434</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>192.84586</v>
+        <v>535.463</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>680.725</v>
+        <v>976.5881899999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>694.6422700000001</v>
+        <v>1030.67924</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>772.41213</v>
+        <v>392.65118</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>939.31826</v>
+        <v>9312.10204</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1318.98218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1613.31556</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1468.722</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>88.94564</v>
+        <v>353.66162</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>39.2829</v>
+        <v>673.6114699999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>144.2701</v>
+        <v>109.78756</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>181.22216</v>
+        <v>301.55923</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>61.56415</v>
+        <v>190.06775</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>108.15247</v>
+        <v>191.16029</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>407.9021</v>
+        <v>589.25473</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>527.02642</v>
+        <v>576.81196</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>808.68035</v>
+        <v>423.57321</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1354.42386</v>
+        <v>1733.47946</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>953.79178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1648.58892</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1086.656</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>0</v>
+        <v>7.39821</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>0</v>
@@ -2207,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>0</v>
+        <v>9.76764</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>0</v>
@@ -2216,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>0.81045</v>
+        <v>0</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>61.25086</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>50.53673999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3.458</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>62.31634</v>
+        <v>236.56617</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>29.21972</v>
+        <v>222.0133</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>14.5059</v>
+        <v>99.54641000000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>59.19037</v>
+        <v>179.51447</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>14.38045</v>
+        <v>146.95057</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>56.25302</v>
+        <v>77.14607000000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>36.60036</v>
+        <v>198.05437</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>43.18463</v>
+        <v>89.16336</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13.70104</v>
+        <v>149.3575</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1019.88211</v>
+        <v>1378.70143</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>399.04086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1089.02235</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>472.191</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3.359</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>26.6293</v>
+        <v>109.69624</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>10.06318</v>
+        <v>451.59579</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>10.22877</v>
+        <v>10.23908</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>122.03159</v>
+        <v>112.27664</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>47.18369999999999</v>
+        <v>43.11709</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>51.89941</v>
+        <v>114.01416</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>62.88223</v>
+        <v>65.61194999999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>257.2798</v>
+        <v>261.89534</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>359.7486</v>
+        <v>212.96108</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>329.82805</v>
+        <v>351.90559</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>497.7132800000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>501.24697</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>569.936</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>0</v>
+        <v>0.00238</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>119.53471</v>
+        <v>0.00135</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>0.0002</v>
+        <v>0.00048</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>0</v>
+        <v>8.999999999999999e-05</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4e-05</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>308.16351</v>
+        <v>325.58841</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>225.75154</v>
+        <v>225.75326</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>373.97985</v>
+        <v>0.00377</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4.7137</v>
+        <v>2.87244</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6.5009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7.782859999999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>37.712</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>60.40865</v>
+        <v>26.03699</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>105.05824</v>
+        <v>77.53658999999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>289.83634</v>
+        <v>244.39709</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>148.75887</v>
+        <v>140.41373</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1115.39462</v>
+        <v>1245.18972</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1303.62407</v>
+        <v>1469.15866</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>142.50888</v>
+        <v>1451.31785</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>305.67711</v>
+        <v>883.5360400000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1106.19474</v>
+        <v>719.3883199999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>635.39391</v>
+        <v>628.03362</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>615.0622099999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6099.258650000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1017.597</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>60.40865</v>
+        <v>26.03699</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>105.05824</v>
+        <v>77.53658999999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>289.83634</v>
+        <v>244.39709</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>134.21415</v>
+        <v>140.41373</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1115.39462</v>
+        <v>1245.18972</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1279.00374</v>
+        <v>1444.53833</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>138.71032</v>
+        <v>1447.51929</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>303.12974</v>
+        <v>880.9886700000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1106.05363</v>
+        <v>719.24721</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>635.39391</v>
+        <v>628.03362</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>615.0622099999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6099.258650000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1017.597</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2558,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>14.54472</v>
+        <v>0</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>0</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1160.46188</v>
+        <v>-6461.52494</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2249.69204</v>
+        <v>-7678.53152</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1936.95303</v>
+        <v>-5603.06648</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4326.63364</v>
+        <v>-7136.341179999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-7417.73762</v>
+        <v>-9147.391710000002</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1869.35224</v>
+        <v>-6056.72519</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4615.65603</v>
+        <v>-8445.828890000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-4135.68913</v>
+        <v>-7236.26324</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-4134.41995</v>
+        <v>-3463.71643</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2729.70398</v>
+        <v>-2057.20252</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3363.90262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-15716.62723</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-4830.417</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>67.35757000000001</v>
+        <v>237.83844</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>274.48008</v>
+        <v>283.52297</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>262.71943</v>
+        <v>455.37984</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>522.65756</v>
+        <v>550.7719599999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>644.7828900000001</v>
+        <v>876.0646700000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>585.82787</v>
+        <v>694.8480999999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>131.12811</v>
+        <v>326.82364</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>311.41471</v>
+        <v>363.52968</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>355.16444</v>
+        <v>614.32736</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>621.2227800000001</v>
+        <v>750.56287</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>760.6872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1277.10649</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>643.41</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6.927449999999999</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>60.43012</v>
+        <v>230.91099</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>274.48008</v>
+        <v>283.52297</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>262.71943</v>
+        <v>455.37984</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>522.65756</v>
+        <v>550.7719599999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>644.7828900000001</v>
+        <v>876.0646700000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>585.82787</v>
+        <v>694.8480999999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>131.12811</v>
+        <v>326.82364</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>311.41471</v>
+        <v>363.52968</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>355.16444</v>
+        <v>614.32736</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>621.2227800000001</v>
+        <v>750.56287</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>760.6872</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1277.10649</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>643.41</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>42.66669</v>
+        <v>55.93405000000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6.720359999999999</v>
+        <v>25.379</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>666.8014300000001</v>
+        <v>1217.46458</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>179.53891</v>
+        <v>254.50428</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>214.91859</v>
+        <v>266.49813</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>25.78833</v>
+        <v>270.98681</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>79.74091</v>
+        <v>152.03415</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>263.39529</v>
+        <v>393.74132</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>114.87852</v>
+        <v>522.5259199999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1447.99133</v>
+        <v>1413.39961</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>173.10714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>176.83143</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1292.94</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2807,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>0.27022</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0.83949</v>
@@ -2837,181 +2983,204 @@
         <v>45.56643</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>0</v>
+        <v>19.3598</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>20</v>
+        <v>23.33629</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>0</v>
+        <v>25.35641</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>43.39684</v>
+        <v>60.63551</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>17.49269</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41.8272</v>
+        <v>55.09455999999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6.71246</v>
+        <v>25.3711</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>666.8014300000001</v>
+        <v>1217.46458</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>110.24244</v>
+        <v>185.20781</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>169.35216</v>
+        <v>220.9317</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25.78833</v>
+        <v>251.62701</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>59.74091000000001</v>
+        <v>128.69786</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>263.39529</v>
+        <v>368.38491</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>114.87852</v>
+        <v>522.2557</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1404.59449</v>
+        <v>1352.7641</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>155.61445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>159.33874</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1283.59</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1135.771</v>
+        <v>-6279.62055</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1981.93232</v>
+        <v>-7420.387549999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2341.03503</v>
+        <v>-6365.15122</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3983.51499</v>
+        <v>-6840.0735</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-6987.873320000001</v>
+        <v>-8537.82517</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1309.3127</v>
+        <v>-5632.8639</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4564.26883</v>
+        <v>-8271.0394</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-4087.66971</v>
+        <v>-7266.47488</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-3894.13403</v>
+        <v>-3371.91499</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1902.93543</v>
+        <v>-2720.03926</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3951.48268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-14616.35217</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-5479.947</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>28.26402</v>
+        <v>27.65681</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>66.87242000000001</v>
+        <v>63.29801999999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>178.74621</v>
+        <v>171.69221</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>233.99527</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>39.47167</v>
+        <v>269.86857</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>101.2794</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>349.28992</v>
+        <v>351.14325</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>657.59127</v>
+        <v>683.7174699999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>340.10262</v>
+        <v>352.21924</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>709.13874</v>
+        <v>707.6168299999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2082.6542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2084.83449</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>666.054</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1164.03502</v>
+        <v>-6307.27736</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2048.80474</v>
+        <v>-7483.685570000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2519.78124</v>
+        <v>-6536.84343</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4217.51026</v>
+        <v>-7074.06877</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7027.344990000001</v>
+        <v>-8807.693740000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1410.5921</v>
+        <v>-5734.1433</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-4913.55875</v>
+        <v>-8622.182650000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-4745.26098</v>
+        <v>-7950.192349999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-4234.236650000001</v>
+        <v>-3724.13423</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1193.79669</v>
+        <v>-3427.65609</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1868.82848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-16701.18666</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-6146.001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,26 +3194,29 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>8</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>14</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>12</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>18</v>
@@ -3053,19 +3225,22 @@
         <v>21</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>